--- a/AAII_Financials/Quarterly/NA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="91">
   <si>
     <t>NA</t>
   </si>
@@ -302,7 +302,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -344,7 +344,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,35 +662,35 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="G7" s="2" t="s">
         <v>0</v>
       </c>
@@ -706,19 +706,22 @@
       <c r="K7" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>84800</v>
+        <v>1800</v>
       </c>
       <c r="E8" s="3">
-        <v>54600</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>0</v>
+        <v>83900</v>
+      </c>
+      <c r="F8" s="3">
+        <v>54000</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>0</v>
@@ -735,19 +738,22 @@
       <c r="K8" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>66100</v>
+        <v>12700</v>
       </c>
       <c r="E9" s="3">
-        <v>29300</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>0</v>
+        <v>65400</v>
+      </c>
+      <c r="F9" s="3">
+        <v>29000</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>0</v>
@@ -764,19 +770,22 @@
       <c r="K9" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>18700</v>
+        <v>-10900</v>
       </c>
       <c r="E10" s="3">
-        <v>25300</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>0</v>
+        <v>18500</v>
+      </c>
+      <c r="F10" s="3">
+        <v>25100</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>0</v>
@@ -793,8 +802,11 @@
       <c r="K10" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -806,19 +818,20 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>7300</v>
+        <v>5600</v>
       </c>
       <c r="E12" s="3">
-        <v>6000</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>0</v>
+        <v>7200</v>
+      </c>
+      <c r="F12" s="3">
+        <v>5900</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>0</v>
@@ -835,8 +848,11 @@
       <c r="K12" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -864,8 +880,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -893,8 +912,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -922,8 +944,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -932,19 +957,20 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>77600</v>
+        <v>21300</v>
       </c>
       <c r="E17" s="3">
-        <v>39100</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>0</v>
+        <v>76800</v>
+      </c>
+      <c r="F17" s="3">
+        <v>38700</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>0</v>
@@ -961,19 +987,22 @@
       <c r="K17" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>7200</v>
+        <v>-19500</v>
       </c>
       <c r="E18" s="3">
-        <v>15500</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>0</v>
+        <v>7100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>15300</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>0</v>
@@ -990,8 +1019,11 @@
       <c r="K18" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1003,20 +1035,21 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>0</v>
       </c>
@@ -1032,8 +1065,11 @@
       <c r="K20" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1061,8 +1097,11 @@
       <c r="K21" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1090,19 +1129,22 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="E23" s="3">
         <v>7500</v>
       </c>
-      <c r="E23" s="3">
-        <v>16000</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>0</v>
+      <c r="F23" s="3">
+        <v>15800</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>0</v>
@@ -1119,8 +1161,11 @@
       <c r="K23" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1148,8 +1193,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1177,19 +1225,22 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="E26" s="3">
         <v>7500</v>
       </c>
-      <c r="E26" s="3">
-        <v>16000</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>0</v>
+      <c r="F26" s="3">
+        <v>15800</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>0</v>
@@ -1206,19 +1257,22 @@
       <c r="K26" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="E27" s="3">
         <v>7500</v>
       </c>
-      <c r="E27" s="3">
-        <v>16000</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>0</v>
+      <c r="F27" s="3">
+        <v>15800</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>0</v>
@@ -1235,8 +1289,11 @@
       <c r="K27" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1264,8 +1321,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1293,8 +1353,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1322,8 +1385,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1351,20 +1417,23 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>0</v>
       </c>
@@ -1380,19 +1449,22 @@
       <c r="K32" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="E33" s="3">
         <v>7500</v>
       </c>
-      <c r="E33" s="3">
-        <v>16000</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>0</v>
+      <c r="F33" s="3">
+        <v>15800</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>0</v>
@@ -1409,8 +1481,11 @@
       <c r="K33" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1438,19 +1513,22 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="E35" s="3">
         <v>7500</v>
       </c>
-      <c r="E35" s="3">
-        <v>16000</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>0</v>
+      <c r="F35" s="3">
+        <v>15800</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>0</v>
@@ -1467,25 +1545,28 @@
       <c r="K35" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="G38" s="2" t="s">
         <v>0</v>
       </c>
@@ -1501,8 +1582,11 @@
       <c r="K38" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1514,8 +1598,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1527,8 +1612,9 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
@@ -1536,10 +1622,10 @@
         <v>12500</v>
       </c>
       <c r="E41" s="3">
-        <v>7400</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>0</v>
+        <v>12300</v>
+      </c>
+      <c r="F41" s="3">
+        <v>7300</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>0</v>
@@ -1556,8 +1642,11 @@
       <c r="K41" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -1585,8 +1674,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
@@ -1614,19 +1706,22 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>23300</v>
+        <v>14500</v>
       </c>
       <c r="E44" s="3">
-        <v>56400</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>0</v>
+        <v>23000</v>
+      </c>
+      <c r="F44" s="3">
+        <v>55800</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>0</v>
@@ -1643,19 +1738,22 @@
       <c r="K44" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>18800</v>
+        <v>14000</v>
       </c>
       <c r="E45" s="3">
-        <v>43000</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>0</v>
+        <v>18600</v>
+      </c>
+      <c r="F45" s="3">
+        <v>42600</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>0</v>
@@ -1672,19 +1770,22 @@
       <c r="K45" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>54500</v>
+        <v>41000</v>
       </c>
       <c r="E46" s="3">
-        <v>106800</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>0</v>
+        <v>53900</v>
+      </c>
+      <c r="F46" s="3">
+        <v>105700</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>0</v>
@@ -1701,8 +1802,11 @@
       <c r="K46" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -1730,20 +1834,23 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>2700</v>
+        <v>4200</v>
       </c>
       <c r="E48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F48" s="3">
         <v>1900</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>0</v>
       </c>
@@ -1759,19 +1866,22 @@
       <c r="K48" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E49" s="3">
         <v>7000</v>
       </c>
-      <c r="E49" s="3">
-        <v>7100</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>0</v>
+      <c r="F49" s="3">
+        <v>7000</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>0</v>
@@ -1788,8 +1898,11 @@
       <c r="K49" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1817,8 +1930,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1846,8 +1962,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
@@ -1875,8 +1994,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -1904,19 +2026,22 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>64200</v>
+        <v>52200</v>
       </c>
       <c r="E54" s="3">
-        <v>115800</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>0</v>
+        <v>63500</v>
+      </c>
+      <c r="F54" s="3">
+        <v>114600</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>0</v>
@@ -1933,8 +2058,11 @@
       <c r="K54" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -1946,8 +2074,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -1959,19 +2088,20 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="E57" s="3">
-        <v>1100</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>0</v>
+        <v>2700</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1000</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>0</v>
@@ -1988,15 +2118,18 @@
       <c r="K57" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3" t="s">
@@ -2017,19 +2150,22 @@
       <c r="K58" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>23000</v>
+        <v>23900</v>
       </c>
       <c r="E59" s="3">
-        <v>101200</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>0</v>
+        <v>22800</v>
+      </c>
+      <c r="F59" s="3">
+        <v>100200</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>0</v>
@@ -2046,19 +2182,22 @@
       <c r="K59" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>25800</v>
+        <v>26100</v>
       </c>
       <c r="E60" s="3">
-        <v>102300</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>0</v>
+        <v>25600</v>
+      </c>
+      <c r="F60" s="3">
+        <v>101200</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>0</v>
@@ -2075,17 +2214,20 @@
       <c r="K60" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E61" s="3">
         <v>1000</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2104,19 +2246,22 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E62" s="3">
         <v>200</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>0</v>
+      <c r="F62" s="3">
+        <v>200</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>0</v>
@@ -2133,8 +2278,11 @@
       <c r="K62" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2162,8 +2310,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2191,8 +2342,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2220,19 +2374,22 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>27000</v>
+        <v>28800</v>
       </c>
       <c r="E66" s="3">
-        <v>102500</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>0</v>
+        <v>26700</v>
+      </c>
+      <c r="F66" s="3">
+        <v>101400</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>0</v>
@@ -2249,8 +2406,11 @@
       <c r="K66" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2262,8 +2422,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2291,8 +2452,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2320,8 +2484,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2349,8 +2516,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2378,19 +2548,22 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>-8600</v>
+        <v>-27400</v>
       </c>
       <c r="E72" s="3">
-        <v>-16100</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>0</v>
+        <v>-8500</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-16000</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>0</v>
@@ -2407,8 +2580,11 @@
       <c r="K72" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2436,8 +2612,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2465,8 +2644,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2494,19 +2676,22 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>37200</v>
+        <v>23400</v>
       </c>
       <c r="E76" s="3">
-        <v>13300</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>0</v>
+        <v>36800</v>
+      </c>
+      <c r="F76" s="3">
+        <v>13200</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>0</v>
@@ -2523,8 +2708,11 @@
       <c r="K76" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2552,25 +2740,28 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="G80" s="2" t="s">
         <v>0</v>
       </c>
@@ -2586,19 +2777,22 @@
       <c r="K80" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="E81" s="3">
         <v>7500</v>
       </c>
-      <c r="E81" s="3">
-        <v>16000</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>0</v>
+      <c r="F81" s="3">
+        <v>15800</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>0</v>
@@ -2615,8 +2809,11 @@
       <c r="K81" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2628,8 +2825,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -2657,8 +2855,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2686,8 +2887,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2715,8 +2919,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -2744,8 +2951,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -2773,8 +2983,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -2802,8 +3015,11 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
@@ -2831,8 +3047,11 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -2844,8 +3063,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
@@ -2873,8 +3093,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -2902,8 +3125,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -2931,8 +3157,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
@@ -2960,8 +3189,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -2973,8 +3205,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -3002,8 +3235,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3031,8 +3267,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3060,8 +3299,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3089,8 +3331,11 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
@@ -3118,8 +3363,11 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -3147,8 +3395,11 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
@@ -3174,6 +3425,9 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="91">
   <si>
     <t>NA</t>
   </si>
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,38 +662,39 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
@@ -709,22 +710,25 @@
       <c r="L7" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="E8" s="3">
-        <v>83900</v>
+        <v>1700</v>
       </c>
       <c r="F8" s="3">
-        <v>54000</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>0</v>
+        <v>81300</v>
+      </c>
+      <c r="G8" s="3">
+        <v>52400</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>0</v>
@@ -741,22 +745,25 @@
       <c r="L8" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12700</v>
+        <v>15900</v>
       </c>
       <c r="E9" s="3">
-        <v>65400</v>
+        <v>12300</v>
       </c>
       <c r="F9" s="3">
-        <v>29000</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>0</v>
+        <v>63400</v>
+      </c>
+      <c r="G9" s="3">
+        <v>28100</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>0</v>
@@ -773,22 +780,25 @@
       <c r="L9" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-10900</v>
+        <v>-8700</v>
       </c>
       <c r="E10" s="3">
-        <v>18500</v>
+        <v>-10600</v>
       </c>
       <c r="F10" s="3">
-        <v>25100</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>0</v>
+        <v>18000</v>
+      </c>
+      <c r="G10" s="3">
+        <v>24300</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>0</v>
@@ -805,8 +815,11 @@
       <c r="L10" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -819,22 +832,23 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>5600</v>
+        <v>4500</v>
       </c>
       <c r="E12" s="3">
-        <v>7200</v>
+        <v>5400</v>
       </c>
       <c r="F12" s="3">
-        <v>5900</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>0</v>
+        <v>7000</v>
+      </c>
+      <c r="G12" s="3">
+        <v>5700</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>0</v>
@@ -851,8 +865,11 @@
       <c r="L12" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -883,8 +900,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -915,8 +935,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -947,8 +970,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -958,22 +984,23 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3">
-        <v>21300</v>
+      <c r="D17" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="E17" s="3">
-        <v>76800</v>
+        <v>20600</v>
       </c>
       <c r="F17" s="3">
-        <v>38700</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>0</v>
+        <v>74500</v>
+      </c>
+      <c r="G17" s="3">
+        <v>37500</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>0</v>
@@ -990,22 +1017,25 @@
       <c r="L17" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="3">
-        <v>-19500</v>
+      <c r="D18" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>7100</v>
+        <v>-18900</v>
       </c>
       <c r="F18" s="3">
-        <v>15300</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>0</v>
+        <v>6900</v>
+      </c>
+      <c r="G18" s="3">
+        <v>14800</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>0</v>
@@ -1022,8 +1052,11 @@
       <c r="L18" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1036,23 +1069,24 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>0</v>
       </c>
@@ -1068,8 +1102,11 @@
       <c r="L20" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1100,8 +1137,11 @@
       <c r="L21" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1132,22 +1172,25 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="3">
-        <v>-18900</v>
+      <c r="D23" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>7500</v>
+        <v>-18300</v>
       </c>
       <c r="F23" s="3">
-        <v>15800</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>0</v>
+        <v>7200</v>
+      </c>
+      <c r="G23" s="3">
+        <v>15300</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>0</v>
@@ -1164,8 +1207,11 @@
       <c r="L23" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1196,8 +1242,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1228,22 +1277,25 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="3">
-        <v>-18900</v>
+      <c r="D26" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>7500</v>
+        <v>-18300</v>
       </c>
       <c r="F26" s="3">
-        <v>15800</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>0</v>
+        <v>7200</v>
+      </c>
+      <c r="G26" s="3">
+        <v>15300</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>0</v>
@@ -1260,22 +1312,25 @@
       <c r="L26" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="3">
-        <v>-18900</v>
+      <c r="D27" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>7500</v>
+        <v>-18300</v>
       </c>
       <c r="F27" s="3">
-        <v>15800</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>0</v>
+        <v>7200</v>
+      </c>
+      <c r="G27" s="3">
+        <v>15300</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>0</v>
@@ -1292,8 +1347,11 @@
       <c r="L27" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1324,8 +1382,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1356,8 +1417,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1388,8 +1452,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1420,23 +1487,26 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>0</v>
       </c>
@@ -1452,22 +1522,25 @@
       <c r="L32" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="3">
-        <v>-18900</v>
+      <c r="D33" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>7500</v>
+        <v>-18300</v>
       </c>
       <c r="F33" s="3">
-        <v>15800</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>0</v>
+        <v>7200</v>
+      </c>
+      <c r="G33" s="3">
+        <v>15300</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>0</v>
@@ -1484,8 +1557,11 @@
       <c r="L33" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1516,22 +1592,25 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="3">
-        <v>-18900</v>
+      <c r="D35" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>7500</v>
+        <v>-18300</v>
       </c>
       <c r="F35" s="3">
-        <v>15800</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>0</v>
+        <v>7200</v>
+      </c>
+      <c r="G35" s="3">
+        <v>15300</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>0</v>
@@ -1548,28 +1627,31 @@
       <c r="L35" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>0</v>
       </c>
@@ -1585,8 +1667,11 @@
       <c r="L38" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1599,8 +1684,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1613,22 +1699,23 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>12500</v>
+        <v>2300</v>
       </c>
       <c r="E41" s="3">
-        <v>12300</v>
+        <v>12100</v>
       </c>
       <c r="F41" s="3">
-        <v>7300</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>0</v>
+        <v>12000</v>
+      </c>
+      <c r="G41" s="3">
+        <v>7100</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>0</v>
@@ -1645,8 +1732,11 @@
       <c r="L41" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -1677,30 +1767,33 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K43" s="3">
@@ -1709,22 +1802,25 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>14500</v>
+        <v>5800</v>
       </c>
       <c r="E44" s="3">
-        <v>23000</v>
+        <v>14100</v>
       </c>
       <c r="F44" s="3">
-        <v>55800</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>0</v>
+        <v>22300</v>
+      </c>
+      <c r="G44" s="3">
+        <v>54100</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>0</v>
@@ -1741,22 +1837,25 @@
       <c r="L44" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>14000</v>
+        <v>10800</v>
       </c>
       <c r="E45" s="3">
-        <v>18600</v>
+        <v>13600</v>
       </c>
       <c r="F45" s="3">
-        <v>42600</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>0</v>
+        <v>18000</v>
+      </c>
+      <c r="G45" s="3">
+        <v>41300</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>0</v>
@@ -1773,22 +1872,25 @@
       <c r="L45" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>41000</v>
+        <v>19100</v>
       </c>
       <c r="E46" s="3">
-        <v>53900</v>
+        <v>39800</v>
       </c>
       <c r="F46" s="3">
-        <v>105700</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>0</v>
+        <v>52300</v>
+      </c>
+      <c r="G46" s="3">
+        <v>102500</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>0</v>
@@ -1805,8 +1907,11 @@
       <c r="L46" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -1837,22 +1942,25 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>4200</v>
+        <v>15100</v>
       </c>
       <c r="E48" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F48" s="3">
         <v>2600</v>
       </c>
-      <c r="F48" s="3">
-        <v>1900</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>0</v>
+      <c r="G48" s="3">
+        <v>1800</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>0</v>
@@ -1869,22 +1977,25 @@
       <c r="L48" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>6900</v>
+        <v>6600</v>
       </c>
       <c r="E49" s="3">
-        <v>7000</v>
+        <v>6700</v>
       </c>
       <c r="F49" s="3">
-        <v>7000</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>0</v>
+        <v>6700</v>
+      </c>
+      <c r="G49" s="3">
+        <v>6800</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>0</v>
@@ -1901,8 +2012,11 @@
       <c r="L49" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1933,8 +2047,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1965,8 +2082,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
@@ -1997,8 +2117,11 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2029,22 +2152,25 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>52200</v>
+        <v>40900</v>
       </c>
       <c r="E54" s="3">
-        <v>63500</v>
+        <v>50600</v>
       </c>
       <c r="F54" s="3">
-        <v>114600</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>0</v>
+        <v>61600</v>
+      </c>
+      <c r="G54" s="3">
+        <v>111100</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>0</v>
@@ -2061,8 +2187,11 @@
       <c r="L54" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2075,8 +2204,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2089,23 +2219,24 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>2200</v>
+        <v>7800</v>
       </c>
       <c r="E57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F57" s="3">
         <v>2700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1000</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>0</v>
       </c>
@@ -2121,18 +2252,21 @@
       <c r="L57" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3" t="s">
@@ -2153,22 +2287,25 @@
       <c r="L58" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>23900</v>
+        <v>19300</v>
       </c>
       <c r="E59" s="3">
-        <v>22800</v>
+        <v>23200</v>
       </c>
       <c r="F59" s="3">
-        <v>100200</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>0</v>
+        <v>22100</v>
+      </c>
+      <c r="G59" s="3">
+        <v>97100</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>0</v>
@@ -2185,22 +2322,25 @@
       <c r="L59" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>26100</v>
+        <v>27300</v>
       </c>
       <c r="E60" s="3">
-        <v>25600</v>
+        <v>25300</v>
       </c>
       <c r="F60" s="3">
-        <v>101200</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>0</v>
+        <v>24800</v>
+      </c>
+      <c r="G60" s="3">
+        <v>98100</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>0</v>
@@ -2217,20 +2357,23 @@
       <c r="L60" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>2400</v>
+        <v>9100</v>
       </c>
       <c r="E61" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F61" s="3">
         <v>1000</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2249,22 +2392,25 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F62" s="3">
         <v>200</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>0</v>
+      <c r="G62" s="3">
+        <v>200</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>0</v>
@@ -2281,8 +2427,11 @@
       <c r="L62" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2313,8 +2462,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2345,8 +2497,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2377,22 +2532,25 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>28800</v>
+        <v>36500</v>
       </c>
       <c r="E66" s="3">
-        <v>26700</v>
+        <v>27900</v>
       </c>
       <c r="F66" s="3">
-        <v>101400</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>0</v>
+        <v>25900</v>
+      </c>
+      <c r="G66" s="3">
+        <v>98300</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>0</v>
@@ -2409,8 +2567,11 @@
       <c r="L66" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2423,8 +2584,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2455,8 +2617,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2487,8 +2652,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2519,8 +2687,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2551,22 +2722,25 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>-27400</v>
+        <v>-45000</v>
       </c>
       <c r="E72" s="3">
-        <v>-8500</v>
+        <v>-26500</v>
       </c>
       <c r="F72" s="3">
-        <v>-16000</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>0</v>
+        <v>-8200</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-15500</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>0</v>
@@ -2583,8 +2757,11 @@
       <c r="L72" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2615,8 +2792,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2647,8 +2827,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2679,22 +2862,25 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D76" s="3">
-        <v>23400</v>
+      <c r="D76" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="E76" s="3">
-        <v>36800</v>
+        <v>22700</v>
       </c>
       <c r="F76" s="3">
-        <v>13200</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>0</v>
+        <v>35700</v>
+      </c>
+      <c r="G76" s="3">
+        <v>12800</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>0</v>
@@ -2711,8 +2897,11 @@
       <c r="L76" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2743,28 +2932,31 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>0</v>
       </c>
@@ -2780,22 +2972,25 @@
       <c r="L80" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D81" s="3">
-        <v>-18900</v>
+      <c r="D81" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>7500</v>
+        <v>-18300</v>
       </c>
       <c r="F81" s="3">
-        <v>15800</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>0</v>
+        <v>7200</v>
+      </c>
+      <c r="G81" s="3">
+        <v>15300</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>0</v>
@@ -2812,8 +3007,11 @@
       <c r="L81" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2826,8 +3024,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -2858,8 +3057,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2890,8 +3092,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2922,8 +3127,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -2954,8 +3162,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -2986,8 +3197,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3018,8 +3232,11 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
@@ -3050,8 +3267,11 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3064,8 +3284,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
@@ -3096,8 +3317,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3128,8 +3352,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3160,8 +3387,11 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
@@ -3192,8 +3422,11 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3206,8 +3439,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -3238,8 +3472,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3270,8 +3507,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3302,8 +3542,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3334,8 +3577,11 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
@@ -3366,8 +3612,11 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -3398,8 +3647,11 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
@@ -3428,6 +3680,9 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="91">
   <si>
     <t>NA</t>
   </si>
@@ -722,13 +722,13 @@
         <v>7200</v>
       </c>
       <c r="E8" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="F8" s="3">
-        <v>81300</v>
+        <v>81500</v>
       </c>
       <c r="G8" s="3">
-        <v>52400</v>
+        <v>52500</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>0</v>
@@ -760,7 +760,7 @@
         <v>12300</v>
       </c>
       <c r="F9" s="3">
-        <v>63400</v>
+        <v>63500</v>
       </c>
       <c r="G9" s="3">
         <v>28100</v>
@@ -839,7 +839,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="E12" s="3">
         <v>5400</v>
@@ -848,7 +848,7 @@
         <v>7000</v>
       </c>
       <c r="G12" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>0</v>
@@ -990,17 +990,17 @@
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>0</v>
+      <c r="D17" s="3">
+        <v>26100</v>
       </c>
       <c r="E17" s="3">
-        <v>20600</v>
+        <v>20700</v>
       </c>
       <c r="F17" s="3">
-        <v>74500</v>
+        <v>74600</v>
       </c>
       <c r="G17" s="3">
-        <v>37500</v>
+        <v>37600</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>0</v>
@@ -1025,8 +1025,8 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>0</v>
+      <c r="D18" s="3">
+        <v>-18800</v>
       </c>
       <c r="E18" s="3">
         <v>-18900</v>
@@ -1035,7 +1035,7 @@
         <v>6900</v>
       </c>
       <c r="G18" s="3">
-        <v>14800</v>
+        <v>14900</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>0</v>
@@ -1075,8 +1075,8 @@
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>0</v>
+      <c r="D20" s="3">
+        <v>300</v>
       </c>
       <c r="E20" s="3">
         <v>600</v>
@@ -1180,17 +1180,17 @@
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>0</v>
+      <c r="D23" s="3">
+        <v>-18500</v>
       </c>
       <c r="E23" s="3">
         <v>-18300</v>
       </c>
       <c r="F23" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="G23" s="3">
-        <v>15300</v>
+        <v>15400</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>0</v>
@@ -1285,17 +1285,17 @@
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>0</v>
+      <c r="D26" s="3">
+        <v>-18500</v>
       </c>
       <c r="E26" s="3">
         <v>-18300</v>
       </c>
       <c r="F26" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="G26" s="3">
-        <v>15300</v>
+        <v>15400</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>0</v>
@@ -1320,17 +1320,17 @@
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>0</v>
+      <c r="D27" s="3">
+        <v>-18500</v>
       </c>
       <c r="E27" s="3">
         <v>-18300</v>
       </c>
       <c r="F27" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="G27" s="3">
-        <v>15300</v>
+        <v>15400</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>0</v>
@@ -1495,8 +1495,8 @@
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>0</v>
+      <c r="D32" s="3">
+        <v>-300</v>
       </c>
       <c r="E32" s="3">
         <v>-600</v>
@@ -1530,17 +1530,17 @@
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>0</v>
+      <c r="D33" s="3">
+        <v>-18500</v>
       </c>
       <c r="E33" s="3">
         <v>-18300</v>
       </c>
       <c r="F33" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="G33" s="3">
-        <v>15300</v>
+        <v>15400</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>0</v>
@@ -1600,17 +1600,17 @@
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>0</v>
+      <c r="D35" s="3">
+        <v>-18500</v>
       </c>
       <c r="E35" s="3">
         <v>-18300</v>
       </c>
       <c r="F35" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="G35" s="3">
-        <v>15300</v>
+        <v>15400</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>0</v>
@@ -1817,10 +1817,10 @@
         <v>14100</v>
       </c>
       <c r="F44" s="3">
-        <v>22300</v>
+        <v>22400</v>
       </c>
       <c r="G44" s="3">
-        <v>54100</v>
+        <v>54200</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>0</v>
@@ -1846,16 +1846,16 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>10800</v>
+        <v>10900</v>
       </c>
       <c r="E45" s="3">
         <v>13600</v>
       </c>
       <c r="F45" s="3">
-        <v>18000</v>
+        <v>18100</v>
       </c>
       <c r="G45" s="3">
-        <v>41300</v>
+        <v>41400</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>0</v>
@@ -1881,16 +1881,16 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>19100</v>
+        <v>19200</v>
       </c>
       <c r="E46" s="3">
-        <v>39800</v>
+        <v>39900</v>
       </c>
       <c r="F46" s="3">
-        <v>52300</v>
+        <v>52400</v>
       </c>
       <c r="G46" s="3">
-        <v>102500</v>
+        <v>102700</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>0</v>
@@ -1986,13 +1986,13 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="E49" s="3">
         <v>6700</v>
       </c>
       <c r="F49" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="G49" s="3">
         <v>6800</v>
@@ -2161,16 +2161,16 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>40900</v>
+        <v>41000</v>
       </c>
       <c r="E54" s="3">
-        <v>50600</v>
+        <v>50700</v>
       </c>
       <c r="F54" s="3">
-        <v>61600</v>
+        <v>61700</v>
       </c>
       <c r="G54" s="3">
-        <v>111100</v>
+        <v>111300</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>0</v>
@@ -2296,16 +2296,16 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>19300</v>
+        <v>19400</v>
       </c>
       <c r="E59" s="3">
         <v>23200</v>
       </c>
       <c r="F59" s="3">
-        <v>22100</v>
+        <v>22200</v>
       </c>
       <c r="G59" s="3">
-        <v>97100</v>
+        <v>97300</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>0</v>
@@ -2331,16 +2331,16 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>27300</v>
+        <v>27400</v>
       </c>
       <c r="E60" s="3">
-        <v>25300</v>
+        <v>25400</v>
       </c>
       <c r="F60" s="3">
         <v>24800</v>
       </c>
       <c r="G60" s="3">
-        <v>98100</v>
+        <v>98300</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>0</v>
@@ -2541,16 +2541,16 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>36500</v>
+        <v>36600</v>
       </c>
       <c r="E66" s="3">
-        <v>27900</v>
+        <v>28000</v>
       </c>
       <c r="F66" s="3">
-        <v>25900</v>
+        <v>26000</v>
       </c>
       <c r="G66" s="3">
-        <v>98300</v>
+        <v>98500</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>0</v>
@@ -2731,13 +2731,13 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>-45000</v>
+        <v>-45100</v>
       </c>
       <c r="E72" s="3">
-        <v>-26500</v>
+        <v>-26600</v>
       </c>
       <c r="F72" s="3">
-        <v>-8200</v>
+        <v>-8300</v>
       </c>
       <c r="G72" s="3">
         <v>-15500</v>
@@ -2870,14 +2870,14 @@
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>0</v>
+      <c r="D76" s="3">
+        <v>4400</v>
       </c>
       <c r="E76" s="3">
         <v>22700</v>
       </c>
       <c r="F76" s="3">
-        <v>35700</v>
+        <v>35800</v>
       </c>
       <c r="G76" s="3">
         <v>12800</v>
@@ -2980,17 +2980,17 @@
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>0</v>
+      <c r="D81" s="3">
+        <v>-18500</v>
       </c>
       <c r="E81" s="3">
         <v>-18300</v>
       </c>
       <c r="F81" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="G81" s="3">
-        <v>15300</v>
+        <v>15400</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>0</v>
